--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000634</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天盛灵活配置混合</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>000634</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>富国天盛灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001614</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方区域发展混合</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.58</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>001614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>东方区域发展混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61.57</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000634</t>
+          <t>001349</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国天盛灵活配置混合</t>
+          <t>富国改革动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +822,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960023</t>
+          <t>009454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银稳健成长混合H</t>
+          <t>创金合信汇融一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005549</t>
+          <t>481004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国成长优选三年定期开放灵活配置混合</t>
+          <t>工银稳健成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>64.10</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>481004</t>
+          <t>000634</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银稳健成长混合A</t>
+          <t>富国天盛灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001349</t>
+          <t>009364</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国改革动力混合</t>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.75</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>39.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -874,25 +1012,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>39.55</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -902,26 +1050,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>39.55</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1088,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009092</t>
+          <t>005549</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国新材料新能源混合</t>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.78</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -958,25 +1126,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009454</t>
+          <t>009092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合A</t>
+          <t>富国新材料新能源混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1164,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009455</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信汇融一年定期开放混合C</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>65.08</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1014,25 +1202,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>009365</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>84.98</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.44</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1070,26 +1278,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>960023</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1098,26 +1310,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>920922</t>
+          <t>009455</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -1318,7 +1318,6 @@
           <t>创金合信汇融一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>65.08</t>
@@ -1334,6 +1333,742 @@
       </c>
       <c r="H16" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2845</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2074,4 +2075,1310 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9501</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3770</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3381,4 +3382,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3390,7 +3391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,17 +3402,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3421,14 +3442,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.93</v>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3437,14 +3480,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.72</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3453,14 +3518,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6029</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3469,13 +3556,605 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4053,7 +4054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4064,17 +4065,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4084,14 +4105,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.97</v>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4100,14 +4143,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.93</v>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4116,14 +4181,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.72</v>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4132,14 +4219,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.53</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4148,13 +4257,469 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4602,7 +4603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4613,17 +4614,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4633,14 +4654,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.19</v>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4649,14 +4692,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.97</v>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4665,14 +4730,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.93</v>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4681,14 +4768,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.72</v>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4697,14 +4806,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.53</v>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4713,13 +4844,371 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.76</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.97</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>7.93</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>7.72</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>3.53</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -600,6 +617,742 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8136</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-0.1993</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2281,7 +3034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3587,7 +4340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4323,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4935,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
+++ b/数据整理/stocks/A股/深证主板/002254-泰和新材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>4.97</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>7.93</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>7.72</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>3.53</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.76</v>
       </c>
     </row>
@@ -616,7 +633,2127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信汇融一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9918</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5730</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013853</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013854</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成匠心卓越三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015491</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时科创主题灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1352,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1824,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2372,7 +4509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3034,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4340,7 +6477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5076,7 +7213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5686,286 +7823,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001349</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国改革动力混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9379</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009454</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4004</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000634</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国天盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3866</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>61.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009455</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信汇融一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>